--- a/stock_predictor_ai/data/company_sentiment_ready/PRU_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/PRU_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5916"/>
+  <dimension ref="A1:B5977"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47769,6 +47769,494 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5917">
+      <c r="A5917" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B5917" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5918">
+      <c r="A5918" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B5918" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5919">
+      <c r="A5919" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B5919" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5920">
+      <c r="A5920" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B5920" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5921">
+      <c r="A5921" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B5921" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5922">
+      <c r="A5922" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B5922" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5923">
+      <c r="A5923" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B5923" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5924">
+      <c r="A5924" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B5924" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5925">
+      <c r="A5925" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B5925" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5926">
+      <c r="A5926" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B5926" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5927">
+      <c r="A5927" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B5927" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5928">
+      <c r="A5928" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B5928" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5929">
+      <c r="A5929" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B5929" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5930">
+      <c r="A5930" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B5930" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5931">
+      <c r="A5931" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B5931" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5932">
+      <c r="A5932" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B5932" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5933">
+      <c r="A5933" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B5933" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5934">
+      <c r="A5934" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B5934" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5935">
+      <c r="A5935" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B5935" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5936">
+      <c r="A5936" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B5936" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5937">
+      <c r="A5937" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B5937" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5938">
+      <c r="A5938" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B5938" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5939">
+      <c r="A5939" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B5939" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5940">
+      <c r="A5940" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B5940" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5941">
+      <c r="A5941" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B5941" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5942">
+      <c r="A5942" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B5942" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5943">
+      <c r="A5943" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B5943" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5944">
+      <c r="A5944" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B5944" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5945">
+      <c r="A5945" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B5945" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5946">
+      <c r="A5946" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B5946" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5947">
+      <c r="A5947" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B5947" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5948">
+      <c r="A5948" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B5948" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5949">
+      <c r="A5949" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B5949" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5950">
+      <c r="A5950" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B5950" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5951">
+      <c r="A5951" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B5951" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5952">
+      <c r="A5952" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B5952" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5953">
+      <c r="A5953" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B5953" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5954">
+      <c r="A5954" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B5954" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5955">
+      <c r="A5955" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B5955" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5956">
+      <c r="A5956" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B5956" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5957">
+      <c r="A5957" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B5957" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5958">
+      <c r="A5958" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B5958" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5959">
+      <c r="A5959" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B5959" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5960">
+      <c r="A5960" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B5960" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5961">
+      <c r="A5961" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B5961" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5962">
+      <c r="A5962" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B5962" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5963">
+      <c r="A5963" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B5963" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5964">
+      <c r="A5964" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B5964" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5965">
+      <c r="A5965" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B5965" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5966">
+      <c r="A5966" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B5966" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5967">
+      <c r="A5967" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B5967" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5968">
+      <c r="A5968" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B5968" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5969">
+      <c r="A5969" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B5969" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5970">
+      <c r="A5970" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B5970" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5971">
+      <c r="A5971" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B5971" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5972">
+      <c r="A5972" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B5972" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5973">
+      <c r="A5973" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B5973" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5974">
+      <c r="A5974" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B5974" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5975">
+      <c r="A5975" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B5975" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5976">
+      <c r="A5976" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B5976" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5977">
+      <c r="A5977" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B5977" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
